--- a/P07/Scrum_Sprint_2.xlsx
+++ b/P07/Scrum_Sprint_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A1E3B-90D4-4802-B6B5-4D32D0CADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778F441-F472-40EB-A992-0B19E886E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -510,6 +510,27 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Test</t>
+  </si>
+  <si>
+    <t>Be able to draw on our logo</t>
+  </si>
+  <si>
+    <t>Save current store, if not saved before get a name for file</t>
+  </si>
+  <si>
+    <t>Wipe what we have rn, get new store</t>
+  </si>
+  <si>
+    <t>Save and prompt for a name</t>
+  </si>
+  <si>
+    <t>Load store from file</t>
+  </si>
+  <si>
+    <t>something broke TestStore, sometime after adding save method and Store(BufferedReader br)</t>
   </si>
 </sst>
 </file>
@@ -670,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -800,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,28 +1972,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="H23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4486,8 +4510,12 @@
       <c r="E36" s="16">
         <v>5</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>70</v>
       </c>
@@ -4515,8 +4543,12 @@
       <c r="E37" s="16">
         <v>13</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="17">
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H37" s="18" t="s">
         <v>79</v>
       </c>
@@ -4544,8 +4576,12 @@
       <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="17">
+        <v>3</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>79</v>
       </c>
@@ -4573,8 +4609,12 @@
       <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="17">
+        <v>3</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H39" s="18" t="s">
         <v>79</v>
       </c>
@@ -4602,8 +4642,12 @@
       <c r="E40" s="16">
         <v>8</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H40" s="18" t="s">
         <v>79</v>
       </c>
@@ -5624,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6792,7 +6836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8002,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8108,7 +8152,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -8123,7 +8167,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8141,7 +8185,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8159,7 +8203,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8177,7 +8221,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8195,7 +8239,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8213,7 +8257,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8231,7 +8275,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8277,52 +8321,80 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="D17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8335,7 +8407,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8343,7 +8415,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="39"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -9135,12 +9209,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
